--- a/output_analysis/SPREAD_4_SEC_2.0_ENERGY_2.0_EV-FACTOR_22_EV_10_FLEX_300_TPS.txt.xlsx
+++ b/output_analysis/SPREAD_4_SEC_2.0_ENERGY_2.0_EV-FACTOR_22_EV_10_FLEX_300_TPS.txt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,600 +434,540 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Vehicle-ID</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>Trips</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Vehicle-ID</t>
+          <t>Number of Trips</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Trips</t>
+          <t>Sequential Coverage</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Ride-share Distances</t>
+          <t>Ride-share Coverage</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Individual Coverages</t>
+          <t>Individual Coverage</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Individual Energy</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Ride-share Energy</t>
+          <t>Individual Cars</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>14 18 21 40 168</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2 23 27 42 93</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>91</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F2" t="n">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>73 83 89 116 122 124 238</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>70 92 96 143</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>123</v>
       </c>
       <c r="E3" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="G3" t="n">
-        <v>98</v>
-      </c>
-      <c r="H3" t="n">
-        <v>130</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>126 151 159 206 212</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>125 145 154 162 256</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>99</v>
       </c>
       <c r="E4" t="n">
         <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>100</v>
-      </c>
-      <c r="H4" t="n">
-        <v>104</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>183 192 286</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>183 193 204 210 217 263 266</t>
-        </is>
+      <c r="D5" t="n">
+        <v>72</v>
       </c>
       <c r="E5" t="n">
         <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>100</v>
-      </c>
-      <c r="H5" t="n">
-        <v>112</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>230 242 244 260 274</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>243 281</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>66</v>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F6" t="n">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="G6" t="n">
-        <v>100</v>
-      </c>
-      <c r="H6" t="n">
-        <v>72</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>27 38 55 225</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>9 20 32 37 52 62 231</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>99</v>
       </c>
       <c r="E7" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>142</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>98</v>
-      </c>
-      <c r="H7" t="n">
-        <v>142</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>6</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>60 74 97 104 113 155 195</t>
+        </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>59 81 100 165 214</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>107</v>
       </c>
       <c r="E8" t="n">
         <v>98</v>
       </c>
       <c r="F8" t="n">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="G8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>118 130 153 186 221</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
         <v>98</v>
       </c>
-      <c r="H8" t="n">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="E9" t="n">
+        <v>98</v>
+      </c>
+      <c r="F9" t="n">
+        <v>35</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>182 187 275</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>109</v>
+      </c>
+      <c r="E10" t="n">
+        <v>86</v>
+      </c>
+      <c r="F10" t="n">
+        <v>21</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>240 254 257 261</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>90</v>
+      </c>
+      <c r="E11" t="n">
+        <v>100</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>8 45 48 56</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>113</v>
+      </c>
+      <c r="E12" t="n">
+        <v>100</v>
+      </c>
+      <c r="F12" t="n">
+        <v>13</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>72 76 80 99 119 276 293</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="D13" t="n">
+        <v>100</v>
+      </c>
+      <c r="E13" t="n">
+        <v>94</v>
+      </c>
+      <c r="F13" t="n">
+        <v>14</v>
+      </c>
+      <c r="G13" t="n">
         <v>7</v>
       </c>
-      <c r="C9" t="n">
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>131 162 288</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>79</v>
+      </c>
+      <c r="E14" t="n">
+        <v>100</v>
+      </c>
+      <c r="F14" t="n">
+        <v>11</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>196 247 266</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>75</v>
+      </c>
+      <c r="E15" t="n">
+        <v>98</v>
+      </c>
+      <c r="F15" t="n">
+        <v>11</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>241 252 290</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>75</v>
+      </c>
+      <c r="E16" t="n">
+        <v>100</v>
+      </c>
+      <c r="F16" t="n">
         <v>7</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>117 131 138 166 206 230</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>100</v>
-      </c>
-      <c r="F9" t="n">
-        <v>93</v>
-      </c>
-      <c r="G9" t="n">
-        <v>100</v>
-      </c>
-      <c r="H9" t="n">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>8</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>174 192 196 209 222</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>98</v>
-      </c>
-      <c r="F10" t="n">
-        <v>127</v>
-      </c>
-      <c r="G10" t="n">
-        <v>98</v>
-      </c>
-      <c r="H10" t="n">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>9</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>245 255</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>98</v>
-      </c>
-      <c r="F11" t="n">
-        <v>62</v>
-      </c>
-      <c r="G11" t="n">
-        <v>98</v>
-      </c>
-      <c r="H11" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>10</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3 34 39 87 254</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>98</v>
-      </c>
-      <c r="F12" t="n">
-        <v>85</v>
-      </c>
-      <c r="G12" t="n">
-        <v>98</v>
-      </c>
-      <c r="H12" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>11</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>65 69 94 120 261 275</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>100</v>
-      </c>
-      <c r="F13" t="n">
-        <v>98</v>
-      </c>
-      <c r="G13" t="n">
-        <v>100</v>
-      </c>
-      <c r="H13" t="n">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>12</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>139 140 171 205</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>100</v>
-      </c>
-      <c r="F14" t="n">
-        <v>101</v>
-      </c>
-      <c r="G14" t="n">
-        <v>100</v>
-      </c>
-      <c r="H14" t="n">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>13</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>185 198 199</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>100</v>
-      </c>
-      <c r="F15" t="n">
-        <v>94</v>
-      </c>
-      <c r="G15" t="n">
-        <v>100</v>
-      </c>
-      <c r="H15" t="n">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>14</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>234 241 271</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
+      <c r="G16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>5 13 31 41 85</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>79</v>
+      </c>
+      <c r="E17" t="n">
+        <v>100</v>
+      </c>
+      <c r="F17" t="n">
+        <v>19</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>70 77 107 239</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>99</v>
+      </c>
+      <c r="E18" t="n">
+        <v>100</v>
+      </c>
+      <c r="F18" t="n">
+        <v>22</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>133 140 204</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
         <v>88</v>
-      </c>
-      <c r="F16" t="n">
-        <v>79</v>
-      </c>
-      <c r="G16" t="n">
-        <v>88</v>
-      </c>
-      <c r="H16" t="n">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>15</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>19 30 49 63 88 107</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>100</v>
-      </c>
-      <c r="F17" t="n">
-        <v>80</v>
-      </c>
-      <c r="G17" t="n">
-        <v>100</v>
-      </c>
-      <c r="H17" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>16</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>95 97 229</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>98</v>
-      </c>
-      <c r="F18" t="n">
-        <v>102</v>
-      </c>
-      <c r="G18" t="n">
-        <v>98</v>
-      </c>
-      <c r="H18" t="n">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>17</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>130 144 164 176</t>
-        </is>
       </c>
       <c r="E19" t="n">
         <v>98</v>
       </c>
       <c r="F19" t="n">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="G19" t="n">
-        <v>98</v>
-      </c>
-      <c r="H19" t="n">
-        <v>86</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="A20" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
-        <v>18</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>191 198 211 285</t>
+        </is>
       </c>
       <c r="C20" t="n">
-        <v>18</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>213 226</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>85</v>
       </c>
       <c r="E20" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F20" t="n">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="G20" t="n">
-        <v>100</v>
-      </c>
-      <c r="H20" t="n">
-        <v>82</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="A21" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
-        <v>19</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>246 258 296</t>
+        </is>
       </c>
       <c r="C21" t="n">
-        <v>19</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>237 253 274 277</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>29</v>
       </c>
       <c r="E21" t="n">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="F21" t="n">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="G21" t="n">
-        <v>100</v>
-      </c>
-      <c r="H21" t="n">
-        <v>72</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
